--- a/field_data/rss_distance_test/rssi_distance_calibration_log.xlsx
+++ b/field_data/rss_distance_test/rssi_distance_calibration_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/academia/institutions/WUR/courses/WIAS/WIAS_AnimalTracking/field_data/rss_distance_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/git/WIAS_tracking_course/field_data/rss_distance_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CC2E70-3A2A-A149-9861-991114F2DC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A2A5A-8426-8E4E-8469-C5DB6824B7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{EBBA8FBD-BE68-4545-BE67-69B30C25E76D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>distance</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>time_start</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1306</t>
   </si>
 </sst>
 </file>
@@ -406,7 +418,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,6 +447,12 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -442,6 +460,12 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/field_data/rss_distance_test/rssi_distance_calibration_log.xlsx
+++ b/field_data/rss_distance_test/rssi_distance_calibration_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/git/WIAS_tracking_course/field_data/rss_distance_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A2A5A-8426-8E4E-8469-C5DB6824B7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279F96C-ED76-A647-85CB-1B94597E5E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{EBBA8FBD-BE68-4545-BE67-69B30C25E76D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>distance</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>time_start</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>1310</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>1306</t>
   </si>
 </sst>
 </file>
@@ -418,7 +406,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,12 +435,6 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -460,12 +442,6 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
